--- a/natmiOut/OldD7/LR-pairs_lrc2p/L1cam-Cd9.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/L1cam-Cd9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd9</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.0856776876501</v>
+        <v>11.88712433333333</v>
       </c>
       <c r="H2">
-        <v>10.0856776876501</v>
+        <v>35.661373</v>
       </c>
       <c r="I2">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="J2">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.1760434272081</v>
+        <v>40.314886</v>
       </c>
       <c r="N2">
-        <v>39.1760434272081</v>
+        <v>120.944658</v>
       </c>
       <c r="O2">
-        <v>0.2072700324638382</v>
+        <v>0.1963336494301312</v>
       </c>
       <c r="P2">
-        <v>0.2072700324638382</v>
+        <v>0.1963336494301312</v>
       </c>
       <c r="Q2">
-        <v>395.1169470842041</v>
+        <v>479.2280623661593</v>
       </c>
       <c r="R2">
-        <v>395.1169470842041</v>
+        <v>4313.052561295433</v>
       </c>
       <c r="S2">
-        <v>0.145292808144687</v>
+        <v>0.1171567903890804</v>
       </c>
       <c r="T2">
-        <v>0.145292808144687</v>
+        <v>0.1171567903890804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.0856776876501</v>
+        <v>11.88712433333333</v>
       </c>
       <c r="H3">
-        <v>10.0856776876501</v>
+        <v>35.661373</v>
       </c>
       <c r="I3">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="J3">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.90702026929689</v>
+        <v>69.65329366666667</v>
       </c>
       <c r="N3">
-        <v>67.90702026929689</v>
+        <v>208.959881</v>
       </c>
       <c r="O3">
-        <v>0.3592779940090737</v>
+        <v>0.3392118072814421</v>
       </c>
       <c r="P3">
-        <v>0.3592779940090737</v>
+        <v>0.3392118072814421</v>
       </c>
       <c r="Q3">
-        <v>684.8883191648508</v>
+        <v>827.9773620418458</v>
       </c>
       <c r="R3">
-        <v>684.8883191648508</v>
+        <v>7451.796258376612</v>
       </c>
       <c r="S3">
-        <v>0.2518478336383511</v>
+        <v>0.2024154632612561</v>
       </c>
       <c r="T3">
-        <v>0.2518478336383511</v>
+        <v>0.2024154632612561</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.0856776876501</v>
+        <v>11.88712433333333</v>
       </c>
       <c r="H4">
-        <v>10.0856776876501</v>
+        <v>35.661373</v>
       </c>
       <c r="I4">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="J4">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.3870330025507</v>
+        <v>69.40355333333332</v>
       </c>
       <c r="N4">
-        <v>59.3870330025507</v>
+        <v>208.21066</v>
       </c>
       <c r="O4">
-        <v>0.3142010060623147</v>
+        <v>0.3379955709003387</v>
       </c>
       <c r="P4">
-        <v>0.3142010060623147</v>
+        <v>0.3379955709003388</v>
       </c>
       <c r="Q4">
-        <v>598.9584736895658</v>
+        <v>825.0086676484642</v>
       </c>
       <c r="R4">
-        <v>598.9584736895658</v>
+        <v>7425.078008836178</v>
       </c>
       <c r="S4">
-        <v>0.220249622919532</v>
+        <v>0.2016897071253207</v>
       </c>
       <c r="T4">
-        <v>0.220249622919532</v>
+        <v>0.2016897071253208</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.0856776876501</v>
+        <v>11.88712433333333</v>
       </c>
       <c r="H5">
-        <v>10.0856776876501</v>
+        <v>35.661373</v>
       </c>
       <c r="I5">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="J5">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.5395877281566</v>
+        <v>25.96691433333334</v>
       </c>
       <c r="N5">
-        <v>22.5395877281566</v>
+        <v>77.90074300000001</v>
       </c>
       <c r="O5">
-        <v>0.1192509674647735</v>
+        <v>0.126458972388088</v>
       </c>
       <c r="P5">
-        <v>0.1192509674647735</v>
+        <v>0.126458972388088</v>
       </c>
       <c r="Q5">
-        <v>227.3270170387011</v>
+        <v>308.6719392333488</v>
       </c>
       <c r="R5">
-        <v>227.3270170387011</v>
+        <v>2778.047453100139</v>
       </c>
       <c r="S5">
-        <v>0.08359292335205536</v>
+        <v>0.07546096842743251</v>
       </c>
       <c r="T5">
-        <v>0.08359292335205536</v>
+        <v>0.07546096842743251</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.38188700845157</v>
+        <v>0.3785896666666667</v>
       </c>
       <c r="H6">
-        <v>2.38188700845157</v>
+        <v>1.135769</v>
       </c>
       <c r="I6">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="J6">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>39.1760434272081</v>
+        <v>40.314886</v>
       </c>
       <c r="N6">
-        <v>39.1760434272081</v>
+        <v>120.944658</v>
       </c>
       <c r="O6">
-        <v>0.2072700324638382</v>
+        <v>0.1963336494301312</v>
       </c>
       <c r="P6">
-        <v>0.2072700324638382</v>
+        <v>0.1963336494301312</v>
       </c>
       <c r="Q6">
-        <v>93.31290888180149</v>
+        <v>15.26279925244467</v>
       </c>
       <c r="R6">
-        <v>93.31290888180149</v>
+        <v>137.365193272002</v>
       </c>
       <c r="S6">
-        <v>0.03431311835049419</v>
+        <v>0.00373129353890596</v>
       </c>
       <c r="T6">
-        <v>0.03431311835049419</v>
+        <v>0.00373129353890596</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.38188700845157</v>
+        <v>0.3785896666666667</v>
       </c>
       <c r="H7">
-        <v>2.38188700845157</v>
+        <v>1.135769</v>
       </c>
       <c r="I7">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="J7">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>67.90702026929689</v>
+        <v>69.65329366666667</v>
       </c>
       <c r="N7">
-        <v>67.90702026929689</v>
+        <v>208.959881</v>
       </c>
       <c r="O7">
-        <v>0.3592779940090737</v>
+        <v>0.3392118072814421</v>
       </c>
       <c r="P7">
-        <v>0.3592779940090737</v>
+        <v>0.3392118072814421</v>
       </c>
       <c r="Q7">
-        <v>161.7468493620957</v>
+        <v>26.37001723149878</v>
       </c>
       <c r="R7">
-        <v>161.7468493620957</v>
+        <v>237.330155083489</v>
       </c>
       <c r="S7">
-        <v>0.05947771697923727</v>
+        <v>0.006446672939170727</v>
       </c>
       <c r="T7">
-        <v>0.05947771697923727</v>
+        <v>0.006446672939170727</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.38188700845157</v>
+        <v>0.3785896666666667</v>
       </c>
       <c r="H8">
-        <v>2.38188700845157</v>
+        <v>1.135769</v>
       </c>
       <c r="I8">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="J8">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>59.3870330025507</v>
+        <v>69.40355333333332</v>
       </c>
       <c r="N8">
-        <v>59.3870330025507</v>
+        <v>208.21066</v>
       </c>
       <c r="O8">
-        <v>0.3142010060623147</v>
+        <v>0.3379955709003387</v>
       </c>
       <c r="P8">
-        <v>0.3142010060623147</v>
+        <v>0.3379955709003388</v>
       </c>
       <c r="Q8">
-        <v>141.4532023792601</v>
+        <v>26.27546812194888</v>
       </c>
       <c r="R8">
-        <v>141.4532023792601</v>
+        <v>236.47921309754</v>
       </c>
       <c r="S8">
-        <v>0.0520153163421804</v>
+        <v>0.006423558536908224</v>
       </c>
       <c r="T8">
-        <v>0.0520153163421804</v>
+        <v>0.006423558536908225</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>2.38188700845157</v>
+        <v>0.3785896666666667</v>
       </c>
       <c r="H9">
-        <v>2.38188700845157</v>
+        <v>1.135769</v>
       </c>
       <c r="I9">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="J9">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.5395877281566</v>
+        <v>25.96691433333334</v>
       </c>
       <c r="N9">
-        <v>22.5395877281566</v>
+        <v>77.90074300000001</v>
       </c>
       <c r="O9">
-        <v>0.1192509674647735</v>
+        <v>0.126458972388088</v>
       </c>
       <c r="P9">
-        <v>0.1192509674647735</v>
+        <v>0.126458972388088</v>
       </c>
       <c r="Q9">
-        <v>53.68675118555065</v>
+        <v>9.830805441818557</v>
       </c>
       <c r="R9">
-        <v>53.68675118555065</v>
+        <v>88.47724897636701</v>
       </c>
       <c r="S9">
-        <v>0.019741747088999</v>
+        <v>0.002403335077700362</v>
       </c>
       <c r="T9">
-        <v>0.019741747088999</v>
+        <v>0.002403335077700362</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.92033769516674</v>
+        <v>4.123197999999999</v>
       </c>
       <c r="H10">
-        <v>1.92033769516674</v>
+        <v>12.369594</v>
       </c>
       <c r="I10">
-        <v>0.1334689131844636</v>
+        <v>0.2069808238940481</v>
       </c>
       <c r="J10">
-        <v>0.1334689131844636</v>
+        <v>0.2069808238940482</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>39.1760434272081</v>
+        <v>40.314886</v>
       </c>
       <c r="N10">
-        <v>39.1760434272081</v>
+        <v>120.944658</v>
       </c>
       <c r="O10">
-        <v>0.2072700324638382</v>
+        <v>0.1963336494301312</v>
       </c>
       <c r="P10">
-        <v>0.2072700324638382</v>
+        <v>0.1963336494301312</v>
       </c>
       <c r="Q10">
-        <v>75.23123294075691</v>
+        <v>166.226257325428</v>
       </c>
       <c r="R10">
-        <v>75.23123294075691</v>
+        <v>1496.036315928852</v>
       </c>
       <c r="S10">
-        <v>0.02766410596865697</v>
+        <v>0.04063730051717376</v>
       </c>
       <c r="T10">
-        <v>0.02766410596865697</v>
+        <v>0.04063730051717377</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.92033769516674</v>
+        <v>4.123197999999999</v>
       </c>
       <c r="H11">
-        <v>1.92033769516674</v>
+        <v>12.369594</v>
       </c>
       <c r="I11">
-        <v>0.1334689131844636</v>
+        <v>0.2069808238940481</v>
       </c>
       <c r="J11">
-        <v>0.1334689131844636</v>
+        <v>0.2069808238940482</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>67.90702026929689</v>
+        <v>69.65329366666667</v>
       </c>
       <c r="N11">
-        <v>67.90702026929689</v>
+        <v>208.959881</v>
       </c>
       <c r="O11">
-        <v>0.3592779940090737</v>
+        <v>0.3392118072814421</v>
       </c>
       <c r="P11">
-        <v>0.3592779940090737</v>
+        <v>0.3392118072814421</v>
       </c>
       <c r="Q11">
-        <v>130.4044107895827</v>
+        <v>287.1943211398126</v>
       </c>
       <c r="R11">
-        <v>130.4044107895827</v>
+        <v>2584.748890258314</v>
       </c>
       <c r="S11">
-        <v>0.0479524433914853</v>
+        <v>0.07021033934570196</v>
       </c>
       <c r="T11">
-        <v>0.0479524433914853</v>
+        <v>0.07021033934570196</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.92033769516674</v>
+        <v>4.123197999999999</v>
       </c>
       <c r="H12">
-        <v>1.92033769516674</v>
+        <v>12.369594</v>
       </c>
       <c r="I12">
-        <v>0.1334689131844636</v>
+        <v>0.2069808238940481</v>
       </c>
       <c r="J12">
-        <v>0.1334689131844636</v>
+        <v>0.2069808238940482</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.3870330025507</v>
+        <v>69.40355333333332</v>
       </c>
       <c r="N12">
-        <v>59.3870330025507</v>
+        <v>208.21066</v>
       </c>
       <c r="O12">
-        <v>0.3142010060623147</v>
+        <v>0.3379955709003387</v>
       </c>
       <c r="P12">
-        <v>0.3142010060623147</v>
+        <v>0.3379955709003388</v>
       </c>
       <c r="Q12">
-        <v>114.0431580789093</v>
+        <v>286.1645922968933</v>
       </c>
       <c r="R12">
-        <v>114.0431580789093</v>
+        <v>2575.481330672039</v>
       </c>
       <c r="S12">
-        <v>0.0419360668006022</v>
+        <v>0.06995860173749127</v>
       </c>
       <c r="T12">
-        <v>0.0419360668006022</v>
+        <v>0.0699586017374913</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.123197999999999</v>
+      </c>
+      <c r="H13">
+        <v>12.369594</v>
+      </c>
+      <c r="I13">
+        <v>0.2069808238940481</v>
+      </c>
+      <c r="J13">
+        <v>0.2069808238940482</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>25.96691433333334</v>
+      </c>
+      <c r="N13">
+        <v>77.90074300000001</v>
+      </c>
+      <c r="O13">
+        <v>0.126458972388088</v>
+      </c>
+      <c r="P13">
+        <v>0.126458972388088</v>
+      </c>
+      <c r="Q13">
+        <v>107.0667292453713</v>
+      </c>
+      <c r="R13">
+        <v>963.600563208342</v>
+      </c>
+      <c r="S13">
+        <v>0.02617458229368114</v>
+      </c>
+      <c r="T13">
+        <v>0.02617458229368114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.531764333333333</v>
+      </c>
+      <c r="H14">
+        <v>10.595293</v>
+      </c>
+      <c r="I14">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="J14">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>40.314886</v>
+      </c>
+      <c r="N14">
+        <v>120.944658</v>
+      </c>
+      <c r="O14">
+        <v>0.1963336494301312</v>
+      </c>
+      <c r="P14">
+        <v>0.1963336494301312</v>
+      </c>
+      <c r="Q14">
+        <v>142.3826764771993</v>
+      </c>
+      <c r="R14">
+        <v>1281.444088294794</v>
+      </c>
+      <c r="S14">
+        <v>0.03480826498497102</v>
+      </c>
+      <c r="T14">
+        <v>0.03480826498497102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.531764333333333</v>
+      </c>
+      <c r="H15">
+        <v>10.595293</v>
+      </c>
+      <c r="I15">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="J15">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>69.65329366666667</v>
+      </c>
+      <c r="N15">
+        <v>208.959881</v>
+      </c>
+      <c r="O15">
+        <v>0.3392118072814421</v>
+      </c>
+      <c r="P15">
+        <v>0.3392118072814421</v>
+      </c>
+      <c r="Q15">
+        <v>245.9990182711259</v>
+      </c>
+      <c r="R15">
+        <v>2213.991164440133</v>
+      </c>
+      <c r="S15">
+        <v>0.06013933173531328</v>
+      </c>
+      <c r="T15">
+        <v>0.06013933173531328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.92033769516674</v>
-      </c>
-      <c r="H13">
-        <v>1.92033769516674</v>
-      </c>
-      <c r="I13">
-        <v>0.1334689131844636</v>
-      </c>
-      <c r="J13">
-        <v>0.1334689131844636</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>22.5395877281566</v>
-      </c>
-      <c r="N13">
-        <v>22.5395877281566</v>
-      </c>
-      <c r="O13">
-        <v>0.1192509674647735</v>
-      </c>
-      <c r="P13">
-        <v>0.1192509674647735</v>
-      </c>
-      <c r="Q13">
-        <v>43.28361994789678</v>
-      </c>
-      <c r="R13">
-        <v>43.28361994789678</v>
-      </c>
-      <c r="S13">
-        <v>0.01591629702371915</v>
-      </c>
-      <c r="T13">
-        <v>0.01591629702371915</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.531764333333333</v>
+      </c>
+      <c r="H16">
+        <v>10.595293</v>
+      </c>
+      <c r="I16">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="J16">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>69.40355333333332</v>
+      </c>
+      <c r="N16">
+        <v>208.21066</v>
+      </c>
+      <c r="O16">
+        <v>0.3379955709003387</v>
+      </c>
+      <c r="P16">
+        <v>0.3379955709003388</v>
+      </c>
+      <c r="Q16">
+        <v>245.1169942692644</v>
+      </c>
+      <c r="R16">
+        <v>2206.052948423379</v>
+      </c>
+      <c r="S16">
+        <v>0.05992370350061847</v>
+      </c>
+      <c r="T16">
+        <v>0.05992370350061849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.531764333333333</v>
+      </c>
+      <c r="H17">
+        <v>10.595293</v>
+      </c>
+      <c r="I17">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="J17">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>25.96691433333334</v>
+      </c>
+      <c r="N17">
+        <v>77.90074300000001</v>
+      </c>
+      <c r="O17">
+        <v>0.126458972388088</v>
+      </c>
+      <c r="P17">
+        <v>0.126458972388088</v>
+      </c>
+      <c r="Q17">
+        <v>91.70902188918879</v>
+      </c>
+      <c r="R17">
+        <v>825.3811970026991</v>
+      </c>
+      <c r="S17">
+        <v>0.02242008658927397</v>
+      </c>
+      <c r="T17">
+        <v>0.02242008658927397</v>
       </c>
     </row>
   </sheetData>
